--- a/sputnik/personal/ee/206ee.xlsx
+++ b/sputnik/personal/ee/206ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -24,18 +24,9 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -45,17 +36,32 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t>переплата</t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>остаток</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,13 +94,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -135,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -148,25 +147,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -176,6 +166,7 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -236,7 +227,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -268,10 +259,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -303,7 +293,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -479,433 +468,269 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D2" sqref="D2:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="51" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>43219</v>
+      <c r="H1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="12">
+        <v>43600</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>2815</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="C2" s="3">
+        <v>3992</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="12"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
-        <v>1381</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>43295</v>
+      <c r="C3" s="3">
+        <v>1806</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="12">
+        <v>43662</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>3148</v>
+        <v>4192</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D11" si="0">C4-C2</f>
-        <v>333</v>
-      </c>
-      <c r="E4" s="8">
-        <v>4.5</v>
+        <f t="shared" ref="D4:D9" si="0">C4-C2</f>
+        <v>200</v>
+      </c>
+      <c r="E4" s="10">
+        <v>4.49</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" ref="F4:F10" si="1">D4*E4</f>
-        <v>1498.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+        <f>D4*E4</f>
+        <v>898</v>
+      </c>
+      <c r="G4" s="13">
+        <f>SUM(F4,F5)</f>
+        <v>898</v>
+      </c>
+      <c r="H4" s="13">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="12"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>1594</v>
+        <v>1806</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>213</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2.35</v>
-      </c>
-      <c r="F5" s="6">
-        <f t="shared" si="1"/>
-        <v>500.55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>43400</v>
+        <v>0</v>
+      </c>
+      <c r="E5" s="11">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="12">
+        <v>43784</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>3592</v>
+        <v>4392</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>444</v>
-      </c>
-      <c r="E6" s="8">
-        <v>4.5</v>
+        <v>200</v>
+      </c>
+      <c r="E6" s="10">
+        <v>4.49</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" si="1"/>
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+        <f>D6*E6</f>
+        <v>898</v>
+      </c>
+      <c r="G6" s="13">
+        <f>SUM(F6,F7)</f>
+        <v>1153.1500000000001</v>
+      </c>
+      <c r="H6" s="13">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="12"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>1806</v>
+        <v>1911</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>212</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2.35</v>
+        <v>105</v>
+      </c>
+      <c r="E7" s="11">
+        <v>2.4300000000000002</v>
       </c>
       <c r="F7" s="6">
-        <f t="shared" si="1"/>
-        <v>498.20000000000005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>43550</v>
+        <f>D7*E7</f>
+        <v>255.15</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="12">
+        <v>43850</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>3792</v>
+        <v>4592</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="E8" s="8">
-        <v>4.5</v>
+      <c r="E8" s="10">
+        <v>4.49</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" si="1"/>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f>D8*E8</f>
+        <v>898</v>
+      </c>
+      <c r="G8" s="13">
+        <f>SUM(F8,F9)</f>
+        <v>898</v>
+      </c>
+      <c r="H8" s="13">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>1806</v>
+        <v>1911</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E9" s="3">
-        <v>2.35</v>
+      <c r="E9" s="11">
+        <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="6">
-        <f t="shared" si="1"/>
+        <f>D9*E9</f>
         <v>0</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>3992</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="E10" s="13">
-        <v>4.57</v>
-      </c>
-      <c r="F10" s="6">
-        <f t="shared" si="1"/>
-        <v>914</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1806</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="14">
-        <v>2.39</v>
-      </c>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
-        <v>43662</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>4192</v>
-      </c>
-      <c r="D12" s="3">
-        <f>C12-C10</f>
-        <v>200</v>
-      </c>
-      <c r="E12" s="13">
-        <v>4.49</v>
-      </c>
-      <c r="F12" s="6">
-        <f>D12*E12</f>
-        <v>898</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1806</v>
-      </c>
-      <c r="D13" s="3">
-        <f>C13-C11</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="14">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
-        <v>43784</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="3">
-        <v>4392</v>
-      </c>
-      <c r="D15" s="3">
-        <f>C15-C12</f>
-        <v>200</v>
-      </c>
-      <c r="E15" s="13">
-        <v>4.49</v>
-      </c>
-      <c r="F15" s="6">
-        <f>D15*E15</f>
-        <v>898</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1911</v>
-      </c>
-      <c r="D16" s="3">
-        <f>C16-C13</f>
-        <v>105</v>
-      </c>
-      <c r="E16" s="14">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F16" s="6">
-        <f>D16*E16</f>
-        <v>255.15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
-        <v>43850</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="3">
-        <v>4592</v>
-      </c>
-      <c r="D17" s="3">
-        <f>C17-C15</f>
-        <v>200</v>
-      </c>
-      <c r="E17" s="13">
-        <v>4.49</v>
-      </c>
-      <c r="F17" s="6">
-        <f>D17*E17</f>
-        <v>898</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1911</v>
-      </c>
-      <c r="D18" s="3">
-        <f>C18-C16</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="14">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F18" s="6">
-        <f>D18*E18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="13">
+        <f>SUM(G2:G9)</f>
+        <v>2949.15</v>
+      </c>
+      <c r="H10" s="13">
+        <f>SUM(H2:H9)</f>
+        <v>2981</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="8"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13">
+        <f>SUM(H10,-G10)</f>
+        <v>31.849999999999909</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -915,12 +740,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -929,12 +754,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/206ee.xlsx
+++ b/sputnik/personal/ee/206ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -57,11 +57,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,7 +227,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -259,9 +259,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -293,6 +294,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -468,17 +470,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:H3"/>
+      <selection activeCell="G11" sqref="G4:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" style="1" customWidth="1"/>
@@ -493,7 +495,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="51" customHeight="1">
+    <row r="1" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -519,7 +521,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>43600</v>
       </c>
@@ -535,7 +537,7 @@
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -549,7 +551,7 @@
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>43662</v>
       </c>
@@ -578,7 +580,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
@@ -597,7 +599,7 @@
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>43784</v>
       </c>
@@ -626,7 +628,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
@@ -648,7 +650,7 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>43850</v>
       </c>
@@ -677,7 +679,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
@@ -699,37 +701,88 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="6" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>43942</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>4792</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" ref="D10:D11" si="1">C10-C8</f>
+        <v>200</v>
+      </c>
+      <c r="E10" s="10">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="6">
+        <f>D10*E10</f>
+        <v>898</v>
+      </c>
+      <c r="G10" s="13">
+        <f>SUM(F10,F11)</f>
+        <v>898</v>
+      </c>
+      <c r="H10" s="13">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1911</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="11">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="6">
+        <f>D11*E11</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="13">
-        <f>SUM(G2:G9)</f>
-        <v>2949.15</v>
-      </c>
-      <c r="H10" s="13">
-        <f>SUM(H2:H9)</f>
-        <v>2981</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="8"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="6" t="s">
+      <c r="G12" s="13">
+        <f>SUM(G2:G11)</f>
+        <v>3847.15</v>
+      </c>
+      <c r="H12" s="13">
+        <f>SUM(H2:H11)</f>
+        <v>3895</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13">
-        <f>SUM(H10,-G10)</f>
-        <v>31.849999999999909</v>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13">
+        <f>SUM(H12,-G12)</f>
+        <v>47.849999999999909</v>
       </c>
     </row>
   </sheetData>
@@ -740,12 +793,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -754,12 +807,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/206ee.xlsx
+++ b/sputnik/personal/ee/206ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -474,10 +474,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G4:G11"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -617,7 +617,7 @@
         <v>4.49</v>
       </c>
       <c r="F6" s="6">
-        <f>D6*E6</f>
+        <f t="shared" ref="F6:F11" si="1">D6*E6</f>
         <v>898</v>
       </c>
       <c r="G6" s="13">
@@ -644,7 +644,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F7" s="6">
-        <f>D7*E7</f>
+        <f t="shared" si="1"/>
         <v>255.15</v>
       </c>
       <c r="G7" s="13"/>
@@ -668,7 +668,7 @@
         <v>4.49</v>
       </c>
       <c r="F8" s="6">
-        <f>D8*E8</f>
+        <f t="shared" si="1"/>
         <v>898</v>
       </c>
       <c r="G8" s="13">
@@ -695,7 +695,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="6">
-        <f>D9*E9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G9" s="13"/>
@@ -712,14 +712,14 @@
         <v>4792</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" ref="D10:D11" si="1">C10-C8</f>
+        <f t="shared" ref="D10:D11" si="2">C10-C8</f>
         <v>200</v>
       </c>
       <c r="E10" s="10">
         <v>4.49</v>
       </c>
       <c r="F10" s="6">
-        <f>D10*E10</f>
+        <f t="shared" si="1"/>
         <v>898</v>
       </c>
       <c r="G10" s="13">
@@ -739,50 +739,152 @@
         <v>1911</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E11" s="11">
         <v>2.4300000000000002</v>
       </c>
       <c r="F11" s="6">
-        <f>D11*E11</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="6" t="s">
+      <c r="A12" s="12">
+        <v>43969</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>4992</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" ref="D12:D13" si="3">C12-C10</f>
+        <v>200</v>
+      </c>
+      <c r="E12" s="10">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" ref="F12:F13" si="4">D12*E12</f>
+        <v>898</v>
+      </c>
+      <c r="G12" s="13">
+        <f>SUM(F12,F13)</f>
+        <v>1870</v>
+      </c>
+      <c r="H12" s="13">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2311</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="E13" s="11">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="4"/>
+        <v>972.00000000000011</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>43986</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>5192</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" ref="D14:D15" si="5">C14-C12</f>
+        <v>200</v>
+      </c>
+      <c r="E14" s="10">
+        <v>4.49</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" ref="F14:F15" si="6">D14*E14</f>
+        <v>898</v>
+      </c>
+      <c r="G14" s="13">
+        <f>SUM(F14,F15)</f>
+        <v>898</v>
+      </c>
+      <c r="H14" s="13">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2311</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="11">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="13">
-        <f>SUM(G2:G11)</f>
-        <v>3847.15</v>
-      </c>
-      <c r="H12" s="13">
-        <f>SUM(H2:H11)</f>
-        <v>3895</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="6" t="s">
+      <c r="G16" s="13">
+        <f>SUM(G2:G15)</f>
+        <v>6615.15</v>
+      </c>
+      <c r="H16" s="13">
+        <f>SUM(H2:H15)</f>
+        <v>6679</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13">
-        <f>SUM(H12,-G12)</f>
-        <v>47.849999999999909</v>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13">
+        <f>SUM(H16,-G16)</f>
+        <v>63.850000000000364</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/206ee.xlsx
+++ b/sputnik/personal/ee/206ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -474,10 +474,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -855,35 +855,86 @@
       <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="6" t="s">
+      <c r="A16" s="12">
+        <v>44057</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>5392</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" ref="D16:D17" si="7">C16-C14</f>
+        <v>200</v>
+      </c>
+      <c r="E16" s="10">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" ref="F16:F17" si="8">D16*E16</f>
+        <v>942</v>
+      </c>
+      <c r="G16" s="13">
+        <f>SUM(F16,F17)</f>
+        <v>942</v>
+      </c>
+      <c r="H16" s="13">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2311</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="11">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G18" s="13">
         <f>SUM(G2:G15)</f>
         <v>6615.15</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H18" s="13">
         <f>SUM(H2:H15)</f>
         <v>6679</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="6" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13">
-        <f>SUM(H16,-G16)</f>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13">
+        <f>SUM(H18,-G18)</f>
         <v>63.850000000000364</v>
       </c>
     </row>

--- a/sputnik/personal/ee/206ee.xlsx
+++ b/sputnik/personal/ee/206ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -474,10 +474,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="11">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="6">
         <f t="shared" si="8"/>
@@ -906,36 +906,87 @@
       <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="6" t="s">
+      <c r="A18" s="12">
+        <v>44092</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>5592</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" ref="D18:D19" si="9">C18-C16</f>
+        <v>200</v>
+      </c>
+      <c r="E18" s="10">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" ref="F18:F19" si="10">D18*E18</f>
+        <v>942</v>
+      </c>
+      <c r="G18" s="13">
+        <f>SUM(F18,F19)</f>
+        <v>942</v>
+      </c>
+      <c r="H18" s="13">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2311</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="11">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="13">
-        <f>SUM(G2:G15)</f>
-        <v>6615.15</v>
-      </c>
-      <c r="H18" s="13">
-        <f>SUM(H2:H15)</f>
-        <v>6679</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="6" t="s">
+      <c r="G20" s="13">
+        <f>SUM(G2:G19)</f>
+        <v>8499.15</v>
+      </c>
+      <c r="H20" s="13">
+        <f>SUM(H2:H19)</f>
+        <v>8507</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13">
-        <f>SUM(H18,-G18)</f>
-        <v>63.850000000000364</v>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13">
+        <f>SUM(H20,-G20)</f>
+        <v>7.8500000000003638</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/206ee.xlsx
+++ b/sputnik/personal/ee/206ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -46,12 +46,6 @@
   </si>
   <si>
     <t>оплачено</t>
-  </si>
-  <si>
-    <t>итого за период</t>
-  </si>
-  <si>
-    <t>остаток</t>
   </si>
 </sst>
 </file>
@@ -61,7 +55,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,26 +79,24 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -134,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -157,16 +149,18 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -474,10 +468,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -522,161 +516,185 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
-        <v>43600</v>
+      <c r="A2" s="15">
+        <v>44092</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>3992</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+        <v>5592</v>
+      </c>
+      <c r="D2" s="3">
+        <f t="shared" ref="D2:D5" si="0">C2-C4</f>
+        <v>200</v>
+      </c>
+      <c r="E2" s="9">
+        <v>4.71</v>
+      </c>
+      <c r="F2" s="6">
+        <f t="shared" ref="F2:F13" si="1">D2*E2</f>
+        <v>942</v>
+      </c>
+      <c r="G2" s="12">
+        <f>SUM(F2,F3)</f>
+        <v>942</v>
+      </c>
+      <c r="H2" s="12">
+        <v>914</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+      <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>1806</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
+        <v>2311</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E3" s="10">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>43662</v>
+      <c r="A4" s="11">
+        <v>44057</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>4192</v>
+        <v>5392</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D9" si="0">C4-C2</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="E4" s="10">
-        <v>4.49</v>
+      <c r="E4" s="9">
+        <v>4.71</v>
       </c>
       <c r="F4" s="6">
-        <f>D4*E4</f>
-        <v>898</v>
-      </c>
-      <c r="G4" s="13">
+        <f t="shared" si="1"/>
+        <v>942</v>
+      </c>
+      <c r="G4" s="12">
         <f>SUM(F4,F5)</f>
-        <v>898</v>
-      </c>
-      <c r="H4" s="13">
+        <v>942</v>
+      </c>
+      <c r="H4" s="12">
         <v>914</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>1806</v>
+        <v>2311</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E5" s="11">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="E5" s="10">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
-        <v>43784</v>
+      <c r="A6" s="11">
+        <v>43986</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>4392</v>
+        <v>5192</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="0"/>
+        <f>C6-C8</f>
         <v>200</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <v>4.49</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" ref="F6:F11" si="1">D6*E6</f>
+        <f t="shared" si="1"/>
         <v>898</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="12">
         <f>SUM(F6,F7)</f>
-        <v>1153.1500000000001</v>
-      </c>
-      <c r="H6" s="13">
-        <v>1153</v>
+        <v>898</v>
+      </c>
+      <c r="H6" s="12">
+        <v>914</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>1911</v>
+        <v>2311</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="E7" s="11">
+        <f>C7-C9</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="10">
         <v>2.4300000000000002</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" si="1"/>
-        <v>255.15</v>
-      </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
-        <v>43850</v>
+      <c r="A8" s="11">
+        <v>43969</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>4592</v>
+        <v>4992</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D8:D13" si="2">C8-C10</f>
         <v>200</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <v>4.49</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" si="1"/>
         <v>898</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="12">
         <f>SUM(F8,F9)</f>
-        <v>898</v>
-      </c>
-      <c r="H8" s="13">
-        <v>914</v>
+        <v>1870</v>
+      </c>
+      <c r="H8" s="12">
+        <v>1870</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -685,24 +703,24 @@
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>1911</v>
+        <v>2311</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="11">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="E9" s="10">
         <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+        <v>972.00000000000011</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="A10" s="11">
         <v>43942</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -712,21 +730,20 @@
         <v>4792</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" ref="D10:D11" si="2">C10-C8</f>
+        <f>C10-C12</f>
         <v>200</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <v>4.49</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" si="1"/>
         <v>898</v>
       </c>
-      <c r="G10" s="13">
-        <f>SUM(F10,F11)</f>
+      <c r="G10" s="12">
         <v>898</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="12">
         <v>914</v>
       </c>
     </row>
@@ -742,43 +759,43 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>2.4300000000000002</v>
       </c>
       <c r="F11" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
-        <v>43969</v>
+      <c r="A12" s="11">
+        <v>43850</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="3">
-        <v>4992</v>
+        <v>4592</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" ref="D12:D13" si="3">C12-C10</f>
+        <f>C12-C14</f>
         <v>200</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="9">
         <v>4.49</v>
       </c>
       <c r="F12" s="6">
-        <f t="shared" ref="F12:F13" si="4">D12*E12</f>
+        <f t="shared" si="1"/>
         <v>898</v>
       </c>
-      <c r="G12" s="13">
-        <f>SUM(F12,F13)</f>
-        <v>1870</v>
-      </c>
-      <c r="H12" s="13">
-        <v>1870</v>
+      <c r="G12" s="12">
+        <v>898</v>
+      </c>
+      <c r="H12" s="12">
+        <f>SUM(H2:H3)</f>
+        <v>914</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -787,49 +804,31 @@
         <v>1</v>
       </c>
       <c r="C13" s="3">
-        <v>2311</v>
+        <v>1911</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="3"/>
-        <v>400</v>
-      </c>
-      <c r="E13" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="10">
         <v>2.4300000000000002</v>
       </c>
       <c r="F13" s="6">
-        <f t="shared" si="4"/>
-        <v>972.00000000000011</v>
-      </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
-        <v>43986</v>
+      <c r="A14" s="11">
+        <v>43784</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="3">
-        <v>5192</v>
-      </c>
-      <c r="D14" s="3">
-        <f t="shared" ref="D14:D15" si="5">C14-C12</f>
-        <v>200</v>
-      </c>
-      <c r="E14" s="10">
-        <v>4.49</v>
-      </c>
-      <c r="F14" s="6">
-        <f t="shared" ref="F14:F15" si="6">D14*E14</f>
-        <v>898</v>
-      </c>
-      <c r="G14" s="13">
-        <f>SUM(F14,F15)</f>
-        <v>898</v>
-      </c>
-      <c r="H14" s="13">
-        <v>914</v>
+        <v>4392</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -838,156 +837,21 @@
         <v>1</v>
       </c>
       <c r="C15" s="3">
-        <v>2311</v>
-      </c>
-      <c r="D15" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="11">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F15" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
+        <v>1911</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
-        <v>44057</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="3">
-        <v>5392</v>
-      </c>
-      <c r="D16" s="3">
-        <f t="shared" ref="D16:D17" si="7">C16-C14</f>
-        <v>200</v>
-      </c>
-      <c r="E16" s="10">
-        <v>4.71</v>
-      </c>
-      <c r="F16" s="6">
-        <f t="shared" ref="F16:F17" si="8">D16*E16</f>
-        <v>942</v>
-      </c>
-      <c r="G16" s="13">
-        <f>SUM(F16,F17)</f>
-        <v>942</v>
-      </c>
-      <c r="H16" s="13">
-        <v>914</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="14"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3">
-        <v>2311</v>
-      </c>
-      <c r="D17" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="11">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F17" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
-        <v>44092</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3">
-        <v>5592</v>
-      </c>
-      <c r="D18" s="3">
-        <f t="shared" ref="D18:D19" si="9">C18-C16</f>
-        <v>200</v>
-      </c>
-      <c r="E18" s="10">
-        <v>4.71</v>
-      </c>
-      <c r="F18" s="6">
-        <f t="shared" ref="F18:F19" si="10">D18*E18</f>
-        <v>942</v>
-      </c>
-      <c r="G18" s="13">
-        <f>SUM(F18,F19)</f>
-        <v>942</v>
-      </c>
-      <c r="H18" s="13">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3">
-        <v>2311</v>
-      </c>
-      <c r="D19" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="11">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F19" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="13">
-        <f>SUM(G2:G19)</f>
-        <v>8499.15</v>
-      </c>
-      <c r="H20" s="13">
-        <f>SUM(H2:H19)</f>
-        <v>8507</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13">
-        <f>SUM(H20,-G20)</f>
-        <v>7.8500000000003638</v>
-      </c>
+      <c r="A17" s="8"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="H17" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/206ee.xlsx
+++ b/sputnik/personal/ee/206ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -85,7 +85,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -95,6 +95,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -126,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -159,6 +165,9 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -468,10 +477,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -515,25 +524,25 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
-        <v>44092</v>
+        <v>44256</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>5592</v>
+        <v>5792</v>
       </c>
       <c r="D2" s="3">
-        <f t="shared" ref="D2:D5" si="0">C2-C4</f>
+        <f t="shared" ref="D2:D3" si="0">C2-C4</f>
         <v>200</v>
       </c>
       <c r="E2" s="9">
         <v>4.71</v>
       </c>
       <c r="F2" s="6">
-        <f t="shared" ref="F2:F13" si="1">D2*E2</f>
+        <f t="shared" ref="F2:F3" si="1">D2*E2</f>
         <v>942</v>
       </c>
       <c r="G2" s="12">
@@ -541,10 +550,10 @@
         <v>942</v>
       </c>
       <c r="H2" s="12">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -567,24 +576,24 @@
       <c r="H3" s="12"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
-        <v>44057</v>
+      <c r="A4" s="16">
+        <v>44092</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>5392</v>
+        <v>5592</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D4:D7" si="2">C4-C6</f>
         <v>200</v>
       </c>
       <c r="E4" s="9">
         <v>4.71</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F4:F15" si="3">D4*E4</f>
         <v>942</v>
       </c>
       <c r="G4" s="12">
@@ -604,14 +613,14 @@
         <v>2311</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E5" s="10">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G5" s="12"/>
@@ -619,28 +628,28 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
-        <v>43986</v>
+        <v>44057</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>5192</v>
+        <v>5392</v>
       </c>
       <c r="D6" s="3">
-        <f>C6-C8</f>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="E6" s="9">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" si="1"/>
-        <v>898</v>
+        <f t="shared" si="3"/>
+        <v>942</v>
       </c>
       <c r="G6" s="12">
         <f>SUM(F6,F7)</f>
-        <v>898</v>
+        <v>942</v>
       </c>
       <c r="H6" s="12">
         <v>914</v>
@@ -655,14 +664,14 @@
         <v>2311</v>
       </c>
       <c r="D7" s="3">
-        <f>C7-C9</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E7" s="10">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G7" s="12"/>
@@ -670,31 +679,31 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
-        <v>43969</v>
+        <v>43986</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>4992</v>
+        <v>5192</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" ref="D8:D13" si="2">C8-C10</f>
+        <f>C8-C10</f>
         <v>200</v>
       </c>
       <c r="E8" s="9">
         <v>4.49</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>898</v>
       </c>
       <c r="G8" s="12">
         <f>SUM(F8,F9)</f>
-        <v>1870</v>
+        <v>898</v>
       </c>
       <c r="H8" s="12">
-        <v>1870</v>
+        <v>914</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -706,45 +715,46 @@
         <v>2311</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="2"/>
-        <v>400</v>
+        <f>C9-C11</f>
+        <v>0</v>
       </c>
       <c r="E9" s="10">
         <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="6">
-        <f t="shared" si="1"/>
-        <v>972.00000000000011</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
-        <v>43942</v>
+        <v>43969</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="3">
-        <v>4792</v>
+        <v>4992</v>
       </c>
       <c r="D10" s="3">
-        <f>C10-C12</f>
+        <f t="shared" ref="D10:D15" si="4">C10-C12</f>
         <v>200</v>
       </c>
       <c r="E10" s="9">
         <v>4.49</v>
       </c>
       <c r="F10" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>898</v>
       </c>
       <c r="G10" s="12">
-        <v>898</v>
+        <f>SUM(F10,F11)</f>
+        <v>1870</v>
       </c>
       <c r="H10" s="12">
-        <v>914</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -753,31 +763,31 @@
         <v>1</v>
       </c>
       <c r="C11" s="3">
-        <v>1911</v>
+        <v>2311</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>400</v>
       </c>
       <c r="E11" s="10">
         <v>2.4300000000000002</v>
       </c>
       <c r="F11" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>972.00000000000011</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
-        <v>43850</v>
+        <v>43942</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="3">
-        <v>4592</v>
+        <v>4792</v>
       </c>
       <c r="D12" s="3">
         <f>C12-C14</f>
@@ -787,14 +797,13 @@
         <v>4.49</v>
       </c>
       <c r="F12" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>898</v>
       </c>
       <c r="G12" s="12">
         <v>898</v>
       </c>
       <c r="H12" s="12">
-        <f>SUM(H2:H3)</f>
         <v>914</v>
       </c>
     </row>
@@ -807,14 +816,14 @@
         <v>1911</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E13" s="10">
         <v>2.4300000000000002</v>
       </c>
       <c r="F13" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G13" s="12"/>
@@ -822,13 +831,31 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
-        <v>43784</v>
+        <v>43850</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="3">
-        <v>4392</v>
+        <v>4592</v>
+      </c>
+      <c r="D14" s="3">
+        <f>C14-C16</f>
+        <v>200</v>
+      </c>
+      <c r="E14" s="9">
+        <v>4.49</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="3"/>
+        <v>898</v>
+      </c>
+      <c r="G14" s="12">
+        <v>898</v>
+      </c>
+      <c r="H14" s="12">
+        <f>SUM(H4:H5)</f>
+        <v>914</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -839,19 +866,52 @@
       <c r="C15" s="3">
         <v>1911</v>
       </c>
+      <c r="D15" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="10">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="14"/>
+      <c r="A16" s="11">
+        <v>43784</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>4392</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="H17" s="14"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="14"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="H19" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/206ee.xlsx
+++ b/sputnik/personal/ee/206ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -477,10 +477,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -526,13 +526,13 @@
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
-        <v>44256</v>
+        <v>44348</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>5792</v>
+        <v>5992</v>
       </c>
       <c r="D2" s="3">
         <f t="shared" ref="D2:D3" si="0">C2-C4</f>
@@ -547,10 +547,10 @@
       </c>
       <c r="G2" s="12">
         <f>SUM(F2,F3)</f>
-        <v>942</v>
+        <v>1197</v>
       </c>
       <c r="H2" s="12">
-        <v>942</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -559,41 +559,41 @@
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>2311</v>
+        <v>2411</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E3" s="10">
         <v>2.5499999999999998</v>
       </c>
       <c r="F3" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>254.99999999999997</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
-        <v>44092</v>
+        <v>44256</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>5592</v>
+        <v>5792</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D7" si="2">C4-C6</f>
+        <f t="shared" ref="D4:D5" si="2">C4-C6</f>
         <v>200</v>
       </c>
       <c r="E4" s="9">
         <v>4.71</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" ref="F4:F15" si="3">D4*E4</f>
+        <f t="shared" ref="F4:F5" si="3">D4*E4</f>
         <v>942</v>
       </c>
       <c r="G4" s="12">
@@ -601,7 +601,7 @@
         <v>942</v>
       </c>
       <c r="H4" s="12">
-        <v>914</v>
+        <v>942</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -627,24 +627,24 @@
       <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>44057</v>
+      <c r="A6" s="16">
+        <v>44092</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>5392</v>
+        <v>5592</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D6:D9" si="4">C6-C8</f>
         <v>200</v>
       </c>
       <c r="E6" s="9">
         <v>4.71</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="F6:F17" si="5">D6*E6</f>
         <v>942</v>
       </c>
       <c r="G6" s="12">
@@ -664,14 +664,14 @@
         <v>2311</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E7" s="10">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G7" s="12"/>
@@ -679,28 +679,28 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
-        <v>43986</v>
+        <v>44057</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>5192</v>
+        <v>5392</v>
       </c>
       <c r="D8" s="3">
-        <f>C8-C10</f>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="E8" s="9">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" si="3"/>
-        <v>898</v>
+        <f t="shared" si="5"/>
+        <v>942</v>
       </c>
       <c r="G8" s="12">
         <f>SUM(F8,F9)</f>
-        <v>898</v>
+        <v>942</v>
       </c>
       <c r="H8" s="12">
         <v>914</v>
@@ -715,14 +715,14 @@
         <v>2311</v>
       </c>
       <c r="D9" s="3">
-        <f>C9-C11</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E9" s="10">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G9" s="12"/>
@@ -730,31 +730,31 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
-        <v>43969</v>
+        <v>43986</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="3">
-        <v>4992</v>
+        <v>5192</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" ref="D10:D15" si="4">C10-C12</f>
+        <f>C10-C12</f>
         <v>200</v>
       </c>
       <c r="E10" s="9">
         <v>4.49</v>
       </c>
       <c r="F10" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>898</v>
       </c>
       <c r="G10" s="12">
         <f>SUM(F10,F11)</f>
-        <v>1870</v>
+        <v>898</v>
       </c>
       <c r="H10" s="12">
-        <v>1870</v>
+        <v>914</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -766,45 +766,46 @@
         <v>2311</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="4"/>
-        <v>400</v>
+        <f>C11-C13</f>
+        <v>0</v>
       </c>
       <c r="E11" s="10">
         <v>2.4300000000000002</v>
       </c>
       <c r="F11" s="6">
-        <f t="shared" si="3"/>
-        <v>972.00000000000011</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
-        <v>43942</v>
+        <v>43969</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="3">
-        <v>4792</v>
+        <v>4992</v>
       </c>
       <c r="D12" s="3">
-        <f>C12-C14</f>
+        <f t="shared" ref="D12:D17" si="6">C12-C14</f>
         <v>200</v>
       </c>
       <c r="E12" s="9">
         <v>4.49</v>
       </c>
       <c r="F12" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>898</v>
       </c>
       <c r="G12" s="12">
-        <v>898</v>
+        <f>SUM(F12,F13)</f>
+        <v>1870</v>
       </c>
       <c r="H12" s="12">
-        <v>914</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -813,31 +814,31 @@
         <v>1</v>
       </c>
       <c r="C13" s="3">
-        <v>1911</v>
+        <v>2311</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>400</v>
       </c>
       <c r="E13" s="10">
         <v>2.4300000000000002</v>
       </c>
       <c r="F13" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>972.00000000000011</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
-        <v>43850</v>
+        <v>43942</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="3">
-        <v>4592</v>
+        <v>4792</v>
       </c>
       <c r="D14" s="3">
         <f>C14-C16</f>
@@ -847,14 +848,13 @@
         <v>4.49</v>
       </c>
       <c r="F14" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>898</v>
       </c>
       <c r="G14" s="12">
         <v>898</v>
       </c>
       <c r="H14" s="12">
-        <f>SUM(H4:H5)</f>
         <v>914</v>
       </c>
     </row>
@@ -867,14 +867,14 @@
         <v>1911</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E15" s="10">
         <v>2.4300000000000002</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G15" s="12"/>
@@ -882,13 +882,31 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
-        <v>43784</v>
+        <v>43850</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="3">
-        <v>4392</v>
+        <v>4592</v>
+      </c>
+      <c r="D16" s="3">
+        <f>C16-C18</f>
+        <v>200</v>
+      </c>
+      <c r="E16" s="9">
+        <v>4.49</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="5"/>
+        <v>898</v>
+      </c>
+      <c r="G16" s="12">
+        <v>898</v>
+      </c>
+      <c r="H16" s="12">
+        <f>SUM(H6:H7)</f>
+        <v>914</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -899,19 +917,52 @@
       <c r="C17" s="3">
         <v>1911</v>
       </c>
+      <c r="D17" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="10">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="14"/>
+      <c r="A18" s="11">
+        <v>43784</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>4392</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="H19" s="14"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="14"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="H21" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/206ee.xlsx
+++ b/sputnik/personal/ee/206ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -477,10 +477,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -526,31 +526,31 @@
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
-        <v>44348</v>
+        <v>44375</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>5992</v>
+        <v>6292</v>
       </c>
       <c r="D2" s="3">
         <f t="shared" ref="D2:D3" si="0">C2-C4</f>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E2" s="9">
         <v>4.71</v>
       </c>
       <c r="F2" s="6">
         <f t="shared" ref="F2:F3" si="1">D2*E2</f>
-        <v>942</v>
+        <v>1413</v>
       </c>
       <c r="G2" s="12">
         <f>SUM(F2,F3)</f>
-        <v>1197</v>
+        <v>1668</v>
       </c>
       <c r="H2" s="12">
-        <v>1197</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -559,7 +559,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>2411</v>
+        <v>2511</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
@@ -577,13 +577,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
-        <v>44256</v>
+        <v>44348</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>5792</v>
+        <v>5992</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" ref="D4:D5" si="2">C4-C6</f>
@@ -598,10 +598,10 @@
       </c>
       <c r="G4" s="12">
         <f>SUM(F4,F5)</f>
-        <v>942</v>
+        <v>1197</v>
       </c>
       <c r="H4" s="12">
-        <v>942</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -610,41 +610,41 @@
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>2311</v>
+        <v>2411</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E5" s="10">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>254.99999999999997</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
-        <v>44092</v>
+        <v>44256</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>5592</v>
+        <v>5792</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" ref="D6:D9" si="4">C6-C8</f>
+        <f t="shared" ref="D6:D7" si="4">C6-C8</f>
         <v>200</v>
       </c>
       <c r="E6" s="9">
         <v>4.71</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" ref="F6:F17" si="5">D6*E6</f>
+        <f t="shared" ref="F6:F7" si="5">D6*E6</f>
         <v>942</v>
       </c>
       <c r="G6" s="12">
@@ -652,7 +652,7 @@
         <v>942</v>
       </c>
       <c r="H6" s="12">
-        <v>914</v>
+        <v>942</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -678,24 +678,24 @@
       <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
-        <v>44057</v>
+      <c r="A8" s="16">
+        <v>44092</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>5392</v>
+        <v>5592</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="D8:D11" si="6">C8-C10</f>
         <v>200</v>
       </c>
       <c r="E8" s="9">
         <v>4.71</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="F8:F19" si="7">D8*E8</f>
         <v>942</v>
       </c>
       <c r="G8" s="12">
@@ -715,14 +715,14 @@
         <v>2311</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E9" s="10">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G9" s="12"/>
@@ -730,28 +730,28 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
-        <v>43986</v>
+        <v>44057</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="3">
-        <v>5192</v>
+        <v>5392</v>
       </c>
       <c r="D10" s="3">
-        <f>C10-C12</f>
+        <f t="shared" si="6"/>
         <v>200</v>
       </c>
       <c r="E10" s="9">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F10" s="6">
-        <f t="shared" si="5"/>
-        <v>898</v>
+        <f t="shared" si="7"/>
+        <v>942</v>
       </c>
       <c r="G10" s="12">
         <f>SUM(F10,F11)</f>
-        <v>898</v>
+        <v>942</v>
       </c>
       <c r="H10" s="12">
         <v>914</v>
@@ -766,14 +766,14 @@
         <v>2311</v>
       </c>
       <c r="D11" s="3">
-        <f>C11-C13</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E11" s="10">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G11" s="12"/>
@@ -781,31 +781,31 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
-        <v>43969</v>
+        <v>43986</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="3">
-        <v>4992</v>
+        <v>5192</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" ref="D12:D17" si="6">C12-C14</f>
+        <f>C12-C14</f>
         <v>200</v>
       </c>
       <c r="E12" s="9">
         <v>4.49</v>
       </c>
       <c r="F12" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>898</v>
       </c>
       <c r="G12" s="12">
         <f>SUM(F12,F13)</f>
-        <v>1870</v>
+        <v>898</v>
       </c>
       <c r="H12" s="12">
-        <v>1870</v>
+        <v>914</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -817,45 +817,46 @@
         <v>2311</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="6"/>
-        <v>400</v>
+        <f>C13-C15</f>
+        <v>0</v>
       </c>
       <c r="E13" s="10">
         <v>2.4300000000000002</v>
       </c>
       <c r="F13" s="6">
-        <f t="shared" si="5"/>
-        <v>972.00000000000011</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
-        <v>43942</v>
+        <v>43969</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="3">
-        <v>4792</v>
+        <v>4992</v>
       </c>
       <c r="D14" s="3">
-        <f>C14-C16</f>
+        <f t="shared" ref="D14:D19" si="8">C14-C16</f>
         <v>200</v>
       </c>
       <c r="E14" s="9">
         <v>4.49</v>
       </c>
       <c r="F14" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>898</v>
       </c>
       <c r="G14" s="12">
-        <v>898</v>
+        <f>SUM(F14,F15)</f>
+        <v>1870</v>
       </c>
       <c r="H14" s="12">
-        <v>914</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -864,31 +865,31 @@
         <v>1</v>
       </c>
       <c r="C15" s="3">
-        <v>1911</v>
+        <v>2311</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>400</v>
       </c>
       <c r="E15" s="10">
         <v>2.4300000000000002</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>972.00000000000011</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
-        <v>43850</v>
+        <v>43942</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="3">
-        <v>4592</v>
+        <v>4792</v>
       </c>
       <c r="D16" s="3">
         <f>C16-C18</f>
@@ -898,14 +899,13 @@
         <v>4.49</v>
       </c>
       <c r="F16" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>898</v>
       </c>
       <c r="G16" s="12">
         <v>898</v>
       </c>
       <c r="H16" s="12">
-        <f>SUM(H6:H7)</f>
         <v>914</v>
       </c>
     </row>
@@ -918,14 +918,14 @@
         <v>1911</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E17" s="10">
         <v>2.4300000000000002</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G17" s="12"/>
@@ -933,13 +933,31 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
-        <v>43784</v>
+        <v>43850</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="3">
-        <v>4392</v>
+        <v>4592</v>
+      </c>
+      <c r="D18" s="3">
+        <f>C18-C20</f>
+        <v>200</v>
+      </c>
+      <c r="E18" s="9">
+        <v>4.49</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" si="7"/>
+        <v>898</v>
+      </c>
+      <c r="G18" s="12">
+        <v>898</v>
+      </c>
+      <c r="H18" s="12">
+        <f>SUM(H8:H9)</f>
+        <v>914</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -950,19 +968,52 @@
       <c r="C19" s="3">
         <v>1911</v>
       </c>
+      <c r="D19" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="10">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="14"/>
+      <c r="A20" s="11">
+        <v>43784</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>4392</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="H21" s="14"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="14"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="H23" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/206ee.xlsx
+++ b/sputnik/personal/ee/206ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -477,10 +477,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -526,31 +526,31 @@
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
-        <v>44375</v>
+        <v>44414</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>6292</v>
+        <v>6492</v>
       </c>
       <c r="D2" s="3">
         <f t="shared" ref="D2:D3" si="0">C2-C4</f>
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E2" s="9">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F2" s="6">
         <f t="shared" ref="F2:F3" si="1">D2*E2</f>
-        <v>1413</v>
+        <v>992</v>
       </c>
       <c r="G2" s="12">
         <f>SUM(F2,F3)</f>
-        <v>1668</v>
+        <v>1260</v>
       </c>
       <c r="H2" s="12">
-        <v>1668</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -559,49 +559,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>2511</v>
+        <v>2611</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E3" s="10">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F3" s="6">
         <f t="shared" si="1"/>
-        <v>254.99999999999997</v>
+        <v>268</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
-        <v>44348</v>
+        <v>44375</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>5992</v>
+        <v>6292</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" ref="D4:D5" si="2">C4-C6</f>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E4" s="9">
         <v>4.71</v>
       </c>
       <c r="F4" s="6">
         <f t="shared" ref="F4:F5" si="3">D4*E4</f>
-        <v>942</v>
+        <v>1413</v>
       </c>
       <c r="G4" s="12">
         <f>SUM(F4,F5)</f>
-        <v>1197</v>
+        <v>1668</v>
       </c>
       <c r="H4" s="12">
-        <v>1197</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -610,7 +610,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>2411</v>
+        <v>2511</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="2"/>
@@ -628,13 +628,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
-        <v>44256</v>
+        <v>44348</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>5792</v>
+        <v>5992</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" ref="D6:D7" si="4">C6-C8</f>
@@ -649,10 +649,10 @@
       </c>
       <c r="G6" s="12">
         <f>SUM(F6,F7)</f>
-        <v>942</v>
+        <v>1197</v>
       </c>
       <c r="H6" s="12">
-        <v>942</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -661,41 +661,41 @@
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>2311</v>
+        <v>2411</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E7" s="10">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>254.99999999999997</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
-        <v>44092</v>
+        <v>44256</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>5592</v>
+        <v>5792</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" ref="D8:D11" si="6">C8-C10</f>
+        <f t="shared" ref="D8:D9" si="6">C8-C10</f>
         <v>200</v>
       </c>
       <c r="E8" s="9">
         <v>4.71</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" ref="F8:F19" si="7">D8*E8</f>
+        <f t="shared" ref="F8:F9" si="7">D8*E8</f>
         <v>942</v>
       </c>
       <c r="G8" s="12">
@@ -703,7 +703,7 @@
         <v>942</v>
       </c>
       <c r="H8" s="12">
-        <v>914</v>
+        <v>942</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -729,24 +729,24 @@
       <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
-        <v>44057</v>
+      <c r="A10" s="16">
+        <v>44092</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="3">
-        <v>5392</v>
+        <v>5592</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="D10:D13" si="8">C10-C12</f>
         <v>200</v>
       </c>
       <c r="E10" s="9">
         <v>4.71</v>
       </c>
       <c r="F10" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="F10:F21" si="9">D10*E10</f>
         <v>942</v>
       </c>
       <c r="G10" s="12">
@@ -766,14 +766,14 @@
         <v>2311</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E11" s="10">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G11" s="12"/>
@@ -781,28 +781,28 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
-        <v>43986</v>
+        <v>44057</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="3">
-        <v>5192</v>
+        <v>5392</v>
       </c>
       <c r="D12" s="3">
-        <f>C12-C14</f>
+        <f t="shared" si="8"/>
         <v>200</v>
       </c>
       <c r="E12" s="9">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F12" s="6">
-        <f t="shared" si="7"/>
-        <v>898</v>
+        <f t="shared" si="9"/>
+        <v>942</v>
       </c>
       <c r="G12" s="12">
         <f>SUM(F12,F13)</f>
-        <v>898</v>
+        <v>942</v>
       </c>
       <c r="H12" s="12">
         <v>914</v>
@@ -817,14 +817,14 @@
         <v>2311</v>
       </c>
       <c r="D13" s="3">
-        <f>C13-C15</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E13" s="10">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G13" s="12"/>
@@ -832,31 +832,31 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
-        <v>43969</v>
+        <v>43986</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="3">
-        <v>4992</v>
+        <v>5192</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" ref="D14:D19" si="8">C14-C16</f>
+        <f>C14-C16</f>
         <v>200</v>
       </c>
       <c r="E14" s="9">
         <v>4.49</v>
       </c>
       <c r="F14" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>898</v>
       </c>
       <c r="G14" s="12">
         <f>SUM(F14,F15)</f>
-        <v>1870</v>
+        <v>898</v>
       </c>
       <c r="H14" s="12">
-        <v>1870</v>
+        <v>914</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -868,45 +868,46 @@
         <v>2311</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="8"/>
-        <v>400</v>
+        <f>C15-C17</f>
+        <v>0</v>
       </c>
       <c r="E15" s="10">
         <v>2.4300000000000002</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" si="7"/>
-        <v>972.00000000000011</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
-        <v>43942</v>
+        <v>43969</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="3">
-        <v>4792</v>
+        <v>4992</v>
       </c>
       <c r="D16" s="3">
-        <f>C16-C18</f>
+        <f t="shared" ref="D16:D21" si="10">C16-C18</f>
         <v>200</v>
       </c>
       <c r="E16" s="9">
         <v>4.49</v>
       </c>
       <c r="F16" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>898</v>
       </c>
       <c r="G16" s="12">
-        <v>898</v>
+        <f>SUM(F16,F17)</f>
+        <v>1870</v>
       </c>
       <c r="H16" s="12">
-        <v>914</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -915,31 +916,31 @@
         <v>1</v>
       </c>
       <c r="C17" s="3">
-        <v>1911</v>
+        <v>2311</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>400</v>
       </c>
       <c r="E17" s="10">
         <v>2.4300000000000002</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>972.00000000000011</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
-        <v>43850</v>
+        <v>43942</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="3">
-        <v>4592</v>
+        <v>4792</v>
       </c>
       <c r="D18" s="3">
         <f>C18-C20</f>
@@ -949,14 +950,13 @@
         <v>4.49</v>
       </c>
       <c r="F18" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>898</v>
       </c>
       <c r="G18" s="12">
         <v>898</v>
       </c>
       <c r="H18" s="12">
-        <f>SUM(H8:H9)</f>
         <v>914</v>
       </c>
     </row>
@@ -969,14 +969,14 @@
         <v>1911</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E19" s="10">
         <v>2.4300000000000002</v>
       </c>
       <c r="F19" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G19" s="12"/>
@@ -984,13 +984,31 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
-        <v>43784</v>
+        <v>43850</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="3">
-        <v>4392</v>
+        <v>4592</v>
+      </c>
+      <c r="D20" s="3">
+        <f>C20-C22</f>
+        <v>200</v>
+      </c>
+      <c r="E20" s="9">
+        <v>4.49</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" si="9"/>
+        <v>898</v>
+      </c>
+      <c r="G20" s="12">
+        <v>898</v>
+      </c>
+      <c r="H20" s="12">
+        <f>SUM(H10:H11)</f>
+        <v>914</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1001,19 +1019,52 @@
       <c r="C21" s="3">
         <v>1911</v>
       </c>
+      <c r="D21" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="10">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="14"/>
+      <c r="A22" s="11">
+        <v>43784</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>4392</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="H23" s="14"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="14"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="H25" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/206ee.xlsx
+++ b/sputnik/personal/ee/206ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>оплачено</t>
+  </si>
+  <si>
+    <t>Т</t>
+  </si>
+  <si>
+    <t>доплата</t>
   </si>
 </sst>
 </file>
@@ -132,7 +138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -169,6 +175,9 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -477,10 +486,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="H23" sqref="H2:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -524,547 +533,618 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
+        <v>44460</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
+        <v>44460</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>6692</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" ref="D3:D4" si="0">C3-C5</f>
+        <v>200</v>
+      </c>
+      <c r="E3" s="9">
+        <v>4.96</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" ref="F3:F4" si="1">D3*E3</f>
+        <v>992</v>
+      </c>
+      <c r="G3" s="12">
+        <f>SUM(F3,F4)</f>
+        <v>992</v>
+      </c>
+      <c r="H3" s="12">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2611</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E4" s="10">
+        <v>2.68</v>
+      </c>
+      <c r="F4" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
         <v>44414</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
         <v>6492</v>
       </c>
-      <c r="D2" s="3">
-        <f t="shared" ref="D2:D3" si="0">C2-C4</f>
+      <c r="D5" s="3">
+        <f t="shared" ref="D5:D6" si="2">C5-C7</f>
         <v>200</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E5" s="9">
         <v>4.96</v>
       </c>
-      <c r="F2" s="6">
-        <f t="shared" ref="F2:F3" si="1">D2*E2</f>
+      <c r="F5" s="6">
+        <f t="shared" ref="F5:F6" si="3">D5*E5</f>
         <v>992</v>
       </c>
-      <c r="G2" s="12">
-        <f>SUM(F2,F3)</f>
+      <c r="G5" s="12">
+        <f>SUM(F5,F6)</f>
         <v>1260</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H5" s="12">
         <v>1260</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="3" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C6" s="3">
         <v>2611</v>
       </c>
-      <c r="D3" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="E3" s="10">
-        <v>2.68</v>
-      </c>
-      <c r="F3" s="6">
-        <f t="shared" si="1"/>
-        <v>268</v>
-      </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
-        <v>44375</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>6292</v>
-      </c>
-      <c r="D4" s="3">
-        <f t="shared" ref="D4:D5" si="2">C4-C6</f>
-        <v>300</v>
-      </c>
-      <c r="E4" s="9">
-        <v>4.71</v>
-      </c>
-      <c r="F4" s="6">
-        <f t="shared" ref="F4:F5" si="3">D4*E4</f>
-        <v>1413</v>
-      </c>
-      <c r="G4" s="12">
-        <f>SUM(F4,F5)</f>
-        <v>1668</v>
-      </c>
-      <c r="H4" s="12">
-        <v>1668</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2511</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="D6" s="3">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="E5" s="10">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="E6" s="10">
+        <v>2.68</v>
+      </c>
+      <c r="F6" s="6">
         <f t="shared" si="3"/>
-        <v>254.99999999999997</v>
-      </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
-        <v>44348</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>5992</v>
-      </c>
-      <c r="D6" s="3">
-        <f t="shared" ref="D6:D7" si="4">C6-C8</f>
-        <v>200</v>
-      </c>
-      <c r="E6" s="9">
+        <v>268</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
+        <v>44375</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>6292</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" ref="D7:D8" si="4">C7-C9</f>
+        <v>300</v>
+      </c>
+      <c r="E7" s="9">
         <v>4.71</v>
       </c>
-      <c r="F6" s="6">
-        <f t="shared" ref="F6:F7" si="5">D6*E6</f>
-        <v>942</v>
-      </c>
-      <c r="G6" s="12">
-        <f>SUM(F6,F7)</f>
-        <v>1197</v>
-      </c>
-      <c r="H6" s="12">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3" t="s">
+      <c r="F7" s="6">
+        <f t="shared" ref="F7:F8" si="5">D7*E7</f>
+        <v>1413</v>
+      </c>
+      <c r="G7" s="12">
+        <f>SUM(F7,F8)</f>
+        <v>1668</v>
+      </c>
+      <c r="H7" s="12">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="3">
-        <v>2411</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="C8" s="3">
+        <v>2511</v>
+      </c>
+      <c r="D8" s="3">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E8" s="10">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F8" s="6">
         <f t="shared" si="5"/>
         <v>254.99999999999997</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>44348</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>5992</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" ref="D9:D10" si="6">C9-C11</f>
+        <v>200</v>
+      </c>
+      <c r="E9" s="9">
+        <v>4.71</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" ref="F9:F10" si="7">D9*E9</f>
+        <v>942</v>
+      </c>
+      <c r="G9" s="12">
+        <f>SUM(F9,F10)</f>
+        <v>1197</v>
+      </c>
+      <c r="H9" s="12">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2411</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="E10" s="10">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="7"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
         <v>44256</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="B11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
         <v>5792</v>
       </c>
-      <c r="D8" s="3">
-        <f t="shared" ref="D8:D9" si="6">C8-C10</f>
+      <c r="D11" s="3">
+        <f t="shared" ref="D11:D12" si="8">C11-C13</f>
         <v>200</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E11" s="9">
         <v>4.71</v>
       </c>
-      <c r="F8" s="6">
-        <f t="shared" ref="F8:F9" si="7">D8*E8</f>
+      <c r="F11" s="6">
+        <f t="shared" ref="F11:F12" si="9">D11*E11</f>
         <v>942</v>
       </c>
-      <c r="G8" s="12">
-        <f>SUM(F8,F9)</f>
+      <c r="G11" s="12">
+        <f>SUM(F11,F12)</f>
         <v>942</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H11" s="12">
         <v>942</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C12" s="3">
         <v>2311</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="10">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F9" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
-        <v>44092</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>5592</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" ref="D10:D13" si="8">C10-C12</f>
-        <v>200</v>
-      </c>
-      <c r="E10" s="9">
-        <v>4.71</v>
-      </c>
-      <c r="F10" s="6">
-        <f t="shared" ref="F10:F21" si="9">D10*E10</f>
-        <v>942</v>
-      </c>
-      <c r="G10" s="12">
-        <f>SUM(F10,F11)</f>
-        <v>942</v>
-      </c>
-      <c r="H10" s="12">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3">
-        <v>2311</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="10">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F11" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
-        <v>44057</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>5392</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" si="8"/>
-        <v>200</v>
-      </c>
-      <c r="E12" s="9">
-        <v>4.71</v>
+        <v>0</v>
+      </c>
+      <c r="E12" s="10">
+        <v>2.5499999999999998</v>
       </c>
       <c r="F12" s="6">
         <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
+        <v>44092</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>5592</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" ref="D13:D16" si="10">C13-C15</f>
+        <v>200</v>
+      </c>
+      <c r="E13" s="9">
+        <v>4.71</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" ref="F13:F24" si="11">D13*E13</f>
         <v>942</v>
       </c>
-      <c r="G12" s="12">
-        <f>SUM(F12,F13)</f>
+      <c r="G13" s="12">
+        <f>SUM(F13,F14)</f>
         <v>942</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H13" s="12">
         <v>914</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C14" s="3">
         <v>2311</v>
       </c>
-      <c r="D13" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="10">
+      <c r="D14" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="10">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F13" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+      <c r="F14" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>44057</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3">
+        <v>5392</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="10"/>
+        <v>200</v>
+      </c>
+      <c r="E15" s="9">
+        <v>4.71</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="11"/>
+        <v>942</v>
+      </c>
+      <c r="G15" s="12">
+        <f>SUM(F15,F16)</f>
+        <v>942</v>
+      </c>
+      <c r="H15" s="12">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2311</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="10">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
         <v>43986</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3">
+      <c r="B17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
         <v>5192</v>
       </c>
-      <c r="D14" s="3">
-        <f>C14-C16</f>
+      <c r="D17" s="3">
+        <f>C17-C19</f>
         <v>200</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E17" s="9">
         <v>4.49</v>
       </c>
-      <c r="F14" s="6">
-        <f t="shared" si="9"/>
+      <c r="F17" s="6">
+        <f t="shared" si="11"/>
         <v>898</v>
       </c>
-      <c r="G14" s="12">
-        <f>SUM(F14,F15)</f>
+      <c r="G17" s="12">
+        <f>SUM(F17,F18)</f>
         <v>898</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H17" s="12">
         <v>914</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C18" s="3">
         <v>2311</v>
-      </c>
-      <c r="D15" s="3">
-        <f>C15-C17</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="10">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F15" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
-        <v>43969</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="3">
-        <v>4992</v>
-      </c>
-      <c r="D16" s="3">
-        <f t="shared" ref="D16:D21" si="10">C16-C18</f>
-        <v>200</v>
-      </c>
-      <c r="E16" s="9">
-        <v>4.49</v>
-      </c>
-      <c r="F16" s="6">
-        <f t="shared" si="9"/>
-        <v>898</v>
-      </c>
-      <c r="G16" s="12">
-        <f>SUM(F16,F17)</f>
-        <v>1870</v>
-      </c>
-      <c r="H16" s="12">
-        <v>1870</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3">
-        <v>2311</v>
-      </c>
-      <c r="D17" s="3">
-        <f t="shared" si="10"/>
-        <v>400</v>
-      </c>
-      <c r="E17" s="10">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F17" s="6">
-        <f t="shared" si="9"/>
-        <v>972.00000000000011</v>
-      </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
-        <v>43942</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3">
-        <v>4792</v>
       </c>
       <c r="D18" s="3">
         <f>C18-C20</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="10">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>43969</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>4992</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" ref="D19:D24" si="12">C19-C21</f>
         <v>200</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E19" s="9">
         <v>4.49</v>
       </c>
-      <c r="F18" s="6">
-        <f t="shared" si="9"/>
+      <c r="F19" s="6">
+        <f t="shared" si="11"/>
         <v>898</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G19" s="12">
+        <f>SUM(F19,F20)</f>
+        <v>1870</v>
+      </c>
+      <c r="H19" s="12">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2311</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="12"/>
+        <v>400</v>
+      </c>
+      <c r="E20" s="10">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" si="11"/>
+        <v>972.00000000000011</v>
+      </c>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>43942</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
+        <v>4792</v>
+      </c>
+      <c r="D21" s="3">
+        <f>C21-C23</f>
+        <v>200</v>
+      </c>
+      <c r="E21" s="9">
+        <v>4.49</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="11"/>
         <v>898</v>
       </c>
-      <c r="H18" s="12">
+      <c r="G21" s="12">
+        <v>898</v>
+      </c>
+      <c r="H21" s="12">
         <v>914</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="3" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C22" s="3">
         <v>1911</v>
       </c>
-      <c r="D19" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="10">
+      <c r="D22" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="10">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F19" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
+      <c r="F22" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
         <v>43850</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="3">
+      <c r="B23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3">
         <v>4592</v>
       </c>
-      <c r="D20" s="3">
-        <f>C20-C22</f>
+      <c r="D23" s="3">
+        <f>C23-C25</f>
         <v>200</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E23" s="9">
         <v>4.49</v>
       </c>
-      <c r="F20" s="6">
-        <f t="shared" si="9"/>
+      <c r="F23" s="6">
+        <f t="shared" si="11"/>
         <v>898</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G23" s="12">
         <v>898</v>
       </c>
-      <c r="H20" s="12">
-        <f>SUM(H10:H11)</f>
+      <c r="H23" s="12">
+        <f>SUM(H13:H14)</f>
         <v>914</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="3" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C24" s="3">
         <v>1911</v>
       </c>
-      <c r="D21" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E21" s="10">
+      <c r="D24" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="10">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F21" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
+      <c r="F24" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
         <v>43784</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="3">
+      <c r="B25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="3">
         <v>4392</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="3" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C26" s="3">
         <v>1911</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="14"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="H25" s="14"/>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="14"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="H28" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/206ee.xlsx
+++ b/sputnik/personal/ee/206ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>доплата</t>
+  </si>
+  <si>
+    <t>итого</t>
   </si>
 </sst>
 </file>
@@ -168,7 +171,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -179,6 +181,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -489,7 +492,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H2:H23"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -534,7 +537,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
+      <c r="A2" s="14">
         <v>44460</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -549,12 +552,12 @@
       <c r="E2" s="5"/>
       <c r="F2" s="7"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="17">
+      <c r="H2" s="16">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+      <c r="A3" s="14">
         <v>44460</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -605,7 +608,7 @@
       <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+      <c r="A5" s="15">
         <v>44414</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -656,7 +659,7 @@
       <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
+      <c r="A7" s="15">
         <v>44375</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -707,7 +710,7 @@
       <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
+      <c r="A9" s="15">
         <v>44348</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -758,7 +761,7 @@
       <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
+      <c r="A11" s="15">
         <v>44256</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -809,7 +812,7 @@
       <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
+      <c r="A13" s="15">
         <v>44092</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1137,14 +1140,23 @@
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="14"/>
+      <c r="F27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="12">
+        <f>SUM(G2:G26)</f>
+        <v>12507</v>
+      </c>
+      <c r="H27" s="17">
+        <f>SUM(H2:H26)</f>
+        <v>12507</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="H28" s="14"/>
+      <c r="H28" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
